--- a/docs/rainfall_vessels_threshold_analysis.xlsx
+++ b/docs/rainfall_vessels_threshold_analysis.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bahar\Documents\RA\grain logistics\data management\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80002364-595D-4498-BE36-42AE4330A787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81883EED-DE02-43B8-B5E3-2FBC1DCCBBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{2B33F624-829B-43F0-AD68-2C9F7DF1B3C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2B33F624-829B-43F0-AD68-2C9F7DF1B3C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="Vessel_count" sheetId="6" r:id="rId2"/>
     <sheet name="tonnage vs #of vessels" sheetId="5" r:id="rId3"/>
-    <sheet name="Data" sheetId="4" r:id="rId4"/>
+    <sheet name="Data" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="NativeTimeline_Year">#N/A</definedName>
@@ -9986,8 +9986,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="211522" y="6143223"/>
-          <a:ext cx="9453816" cy="2729074"/>
+          <a:off x="215332" y="6077340"/>
+          <a:ext cx="9421710" cy="2696967"/>
           <a:chOff x="3185273" y="5962466"/>
           <a:chExt cx="9450006" cy="2729074"/>
         </a:xfrm>
@@ -10105,8 +10105,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11577931" y="1491422"/>
-          <a:ext cx="1830085" cy="756520"/>
+          <a:off x="11541308" y="1481191"/>
+          <a:ext cx="1823663" cy="753438"/>
           <a:chOff x="9957371" y="1609618"/>
           <a:chExt cx="1823663" cy="753438"/>
         </a:xfrm>
@@ -10340,8 +10340,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9508561" y="2909041"/>
-          <a:ext cx="3931107" cy="2506293"/>
+          <a:off x="9480265" y="2881686"/>
+          <a:ext cx="3908503" cy="2476327"/>
           <a:chOff x="9512371" y="2905231"/>
           <a:chExt cx="3923487" cy="2500578"/>
         </a:xfrm>
@@ -10478,8 +10478,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="245681" y="1917417"/>
-          <a:ext cx="2327038" cy="3169960"/>
+          <a:off x="249491" y="1908384"/>
+          <a:ext cx="2318477" cy="3125953"/>
           <a:chOff x="262906" y="5957342"/>
           <a:chExt cx="2327038" cy="3028750"/>
         </a:xfrm>
@@ -11876,6 +11876,152 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7260C13-BBFB-4625-B234-7607BE4C11E8}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="K15:L22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of tonnage_per_day" fld="5" subtotal="average" baseField="2" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="174" name="Year">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="41640"/>
+            <customFilter operator="lessThanOrEqual" val="43465"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C5726892-BCA0-4FCC-9078-61BBAC299A1F}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="K3:L10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
@@ -12003,7 +12149,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A342835-C02E-44FF-89D2-206D68C1441A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="K28:L35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
@@ -12114,152 +12260,6 @@
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
     <filter fld="1" type="dateBetween" evalOrder="-1" id="40" name="Year">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="41640"/>
-            <customFilter operator="lessThanOrEqual" val="43465"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7260C13-BBFB-4625-B234-7607BE4C11E8}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="K15:L22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of tonnage_per_day" fld="5" subtotal="average" baseField="2" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="174" name="Year">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
@@ -12838,6 +12838,7 @@
       <c r="AD5" s="5"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="3/zF61KdPZmfVX/5+JiMsSpUYb++JGk/EEZwg+lSCA9CIEB6GvQ0rP1xLX9hT8/ucHiSYdei52tCXofu/c5Piw==" saltValue="WW5LXi+SA87Ap+MP9rxswg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A3:L3"/>
   </mergeCells>
@@ -12929,6 +12930,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="MCo0dVj7ol66mR8vAWQIN+FGFPAhhpeScIUVlCUG82l15MOHtc2cRNZ2qUw5luu5RblBW6EsdmqoCRaLH2BYng==" saltValue="L97SJnwC1s003GC8HG36hg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -13040,6 +13042,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Osel+ywk8p5elqYdaU0OXkskfC43ttIJK7+Rw2WiF1DnekQ2fbjd7QGFSRfPG86/n4OPAQ1GRiC6SVQMPohycQ==" saltValue="P86HJtu6RQUKiutsUMkEvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -13049,7 +13052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B911F4-9E2B-4447-83AC-B02C554DB863}">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
@@ -15107,6 +15110,7 @@
       <c r="F83" s="13"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="N3sSOvJe7HL7NDed7JvtLl/a+K09bqczSpuIHzoDqou0oaEnYM1pwO2R/X3L9f6zc1kxTYQYPp7gPcuZg0m9Hg==" saltValue="JtkB8rPh/U3shKfx6aJkFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A83:F83"/>
   </mergeCells>

--- a/docs/rainfall_vessels_threshold_analysis.xlsx
+++ b/docs/rainfall_vessels_threshold_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bahar\Documents\RA\grain logistics\data management\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81883EED-DE02-43B8-B5E3-2FBC1DCCBBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5700DB-1E7C-4E1C-B2A3-2299572E5400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2B33F624-829B-43F0-AD68-2C9F7DF1B3C8}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{2B33F624-829B-43F0-AD68-2C9F7DF1B3C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -686,7 +686,16 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -714,9 +723,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -808,16 +814,16 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Timeline Style 1" pivot="0" table="0" count="8" xr9:uid="{EF77C42C-4043-42E3-B7EE-0B46DC864B94}">
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+    </tableStyle>
+    <tableStyle name="Timeline Style 2" pivot="0" table="0" count="8" xr9:uid="{D172DCDC-DE81-473B-A0C2-A26D9A9CABA8}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="Timeline Style 2" pivot="0" table="0" count="8" xr9:uid="{D172DCDC-DE81-473B-A0C2-A26D9A9CABA8}">
+    <tableStyle name="Timeline Style 3" pivot="0" table="0" count="8" xr9:uid="{EAF1CCCF-9948-4ACA-A684-14BA766EF3EA}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
-    </tableStyle>
-    <tableStyle name="Timeline Style 3" pivot="0" table="0" count="8" xr9:uid="{EAF1CCCF-9948-4ACA-A684-14BA766EF3EA}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -9486,15 +9492,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>188360</xdr:colOff>
+      <xdr:colOff>188359</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>151170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>136047</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>256853</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>44714</xdr:rowOff>
+      <xdr:rowOff>58049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9509,8 +9515,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="188360" y="5470187"/>
-          <a:ext cx="9708136" cy="3532308"/>
+          <a:off x="188359" y="5470187"/>
+          <a:ext cx="9218915" cy="3545643"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9583,13 +9589,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>188360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>168818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>267557</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>45421</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>134355</xdr:rowOff>
+      <xdr:rowOff>141248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9604,8 +9610,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="188360" y="1120140"/>
-          <a:ext cx="9229618" cy="4151294"/>
+          <a:off x="188360" y="1121318"/>
+          <a:ext cx="7787426" cy="4157009"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9748,15 +9754,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>70624</xdr:colOff>
+      <xdr:colOff>64909</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>545814</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9771,8 +9777,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="70624" y="53340"/>
-          <a:ext cx="13348196" cy="838200"/>
+          <a:off x="64909" y="57150"/>
+          <a:ext cx="12071439" cy="846762"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9813,12 +9819,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-CA" sz="1600" b="1">
+            <a:rPr lang="en-CA" sz="2800" b="1">
               <a:solidFill>
                 <a:srgbClr val="002060"/>
               </a:solidFill>
@@ -9826,14 +9832,14 @@
             <a:t>Port Analysis Dashboard For</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-CA" sz="1600" b="1" baseline="0">
+            <a:rPr lang="en-CA" sz="2800" b="1" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="002060"/>
               </a:solidFill>
             </a:rPr>
             <a:t> Grain Logistics</a:t>
           </a:r>
-          <a:endParaRPr lang="en-CA" sz="1600" b="1">
+          <a:endParaRPr lang="en-CA" sz="2800" b="1">
             <a:solidFill>
               <a:srgbClr val="002060"/>
             </a:solidFill>
@@ -9845,16 +9851,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>288938</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>21618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>552256</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>169266</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9869,8 +9875,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9512371" y="1123950"/>
-          <a:ext cx="3917772" cy="1599344"/>
+          <a:off x="8219303" y="1156056"/>
+          <a:ext cx="3923487" cy="1603154"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9963,15 +9969,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>215332</xdr:colOff>
+      <xdr:colOff>211522</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>92643</xdr:rowOff>
+      <xdr:rowOff>96453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>518727</xdr:colOff>
+      <xdr:colOff>46917</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>92644</xdr:rowOff>
+      <xdr:rowOff>96454</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9986,8 +9992,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="215332" y="6077340"/>
-          <a:ext cx="9421710" cy="2696967"/>
+          <a:off x="207712" y="6139413"/>
+          <a:ext cx="8991531" cy="2729074"/>
           <a:chOff x="3185273" y="5962466"/>
           <a:chExt cx="9450006" cy="2729074"/>
         </a:xfrm>
@@ -10043,16 +10049,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238269</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>379303</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>21215</xdr:rowOff>
+      <xdr:rowOff>55227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>588099</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>172902</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342472</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10081,16 +10087,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>599330</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447594</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>171236</xdr:rowOff>
+      <xdr:rowOff>167426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>599331</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447594</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>25685</xdr:rowOff>
+      <xdr:rowOff>21875</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -10105,8 +10111,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11541308" y="1481191"/>
-          <a:ext cx="1823663" cy="753438"/>
+          <a:off x="10206138" y="1487612"/>
+          <a:ext cx="1830085" cy="756520"/>
           <a:chOff x="9957371" y="1609618"/>
           <a:chExt cx="1823663" cy="753438"/>
         </a:xfrm>
@@ -10231,16 +10237,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>599329</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447593</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>68495</xdr:rowOff>
+      <xdr:rowOff>60875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>265421</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>117494</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>34248</xdr:rowOff>
+      <xdr:rowOff>28533</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10255,8 +10261,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11541307" y="1198652"/>
-          <a:ext cx="1489754" cy="1404135"/>
+          <a:off x="10208042" y="1195313"/>
+          <a:ext cx="1499986" cy="1423164"/>
         </a:xfrm>
         <a:prstGeom prst="donut">
           <a:avLst>
@@ -10316,16 +10322,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>290843</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>126458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>556066</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>92507</xdr:rowOff>
+      <xdr:rowOff>93236</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -10340,8 +10346,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9480265" y="2881686"/>
-          <a:ext cx="3908503" cy="2476327"/>
+          <a:off x="8217398" y="2902150"/>
+          <a:ext cx="3925392" cy="2513913"/>
           <a:chOff x="9512371" y="2905231"/>
           <a:chExt cx="3923487" cy="2500578"/>
         </a:xfrm>
@@ -10454,16 +10460,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>249491</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>59036</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>531559</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>20037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>136417</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>128427</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>556066</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>93238</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -10478,14 +10484,14 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="249491" y="1908384"/>
-          <a:ext cx="2318477" cy="3125953"/>
+          <a:off x="9681980" y="5517182"/>
+          <a:ext cx="2460810" cy="3537647"/>
           <a:chOff x="262906" y="5957342"/>
           <a:chExt cx="2327038" cy="3028750"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
-        <mc:Choice Requires="tsle">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="10" name="Year 1">
@@ -10503,12 +10509,12 @@
             </xdr:xfrm>
             <a:graphic>
               <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
-                <tsle:timeslicer name="Year 1"/>
+                <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Year 1"/>
               </a:graphicData>
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback xmlns="">
+        <mc:Fallback>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -10518,8 +10524,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="245681" y="1917417"/>
-                <a:ext cx="2311644" cy="1444623"/>
+                <a:off x="9681980" y="5517182"/>
+                <a:ext cx="2444531" cy="1612186"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -10546,8 +10552,8 @@
           </xdr:sp>
         </mc:Fallback>
       </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-        <mc:Choice Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="23" name="Threshold (mm) 3">
@@ -10570,7 +10576,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback xmlns="">
+        <mc:Fallback>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -10580,8 +10586,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="245681" y="3406187"/>
-                <a:ext cx="2327038" cy="1681190"/>
+                <a:off x="9681980" y="7178636"/>
+                <a:ext cx="2460810" cy="1876193"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -10741,7 +10747,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>1878330</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>135255</xdr:rowOff>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
       <mc:Choice Requires="tsle">
@@ -10818,7 +10824,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>1558290</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>93345</xdr:rowOff>
+      <xdr:rowOff>97155</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -11848,7 +11854,7 @@
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="36" name="Year">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="56" name="Year">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
@@ -11876,6 +11882,143 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A342835-C02E-44FF-89D2-206D68C1441A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="K28:L35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average anchorage hours/DAY" fld="6" subtotal="average" baseField="2" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="60" name="Year">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="41640"/>
+            <customFilter operator="lessThanOrEqual" val="43465"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7260C13-BBFB-4625-B234-7607BE4C11E8}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="K15:L22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
@@ -11994,7 +12137,7 @@
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="174" name="Year">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="194" name="Year">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
@@ -12021,7 +12164,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C5726892-BCA0-4FCC-9078-61BBAC299A1F}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="K3:L10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
@@ -12122,144 +12265,7 @@
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="174" name="Year">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="41640"/>
-            <customFilter operator="lessThanOrEqual" val="43465"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A342835-C02E-44FF-89D2-206D68C1441A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="K28:L35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average anchorage hours/DAY" fld="6" subtotal="average" baseField="2" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="9">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="1" type="dateBetween" evalOrder="-1" id="40" name="Year">
+    <filter fld="1" type="dateBetween" evalOrder="-1" id="194" name="Year">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
@@ -12339,16 +12345,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B4F1C28A-5BD1-4D27-9FD7-60E2FE95210D}" name="Table13" displayName="Table13" ref="A1:G82" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B4F1C28A-5BD1-4D27-9FD7-60E2FE95210D}" name="Table13" displayName="Table13" ref="A1:G82" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:G82" xr:uid="{B4F1C28A-5BD1-4D27-9FD7-60E2FE95210D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DBA6548E-7646-4550-8198-0A97FFE52224}" name="Threshold (mm)" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{B663B9F8-7E95-4AE7-A053-AA99A0FD54EB}" name="Year" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{F317B0CA-BEC2-49C8-9367-AB5B908491D2}" name="consecutive_days" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{3548F8DE-D1D3-410F-95BE-0A3E98B65FEF}" name="number_of_sequences" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{60508684-7EAF-4BDF-A90D-FC9E411457E4}" name="avg_vessels_per_day" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{563E180C-04E6-4EBA-8FB1-778B9A92BDCD}" name="avg_tonnage_per_day" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{E639789E-D947-4713-8670-8BC0A67B6AB7}" name="avg_anchor_hrs_per_day" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DBA6548E-7646-4550-8198-0A97FFE52224}" name="Threshold (mm)" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{B663B9F8-7E95-4AE7-A053-AA99A0FD54EB}" name="Year" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{F317B0CA-BEC2-49C8-9367-AB5B908491D2}" name="consecutive_days" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{3548F8DE-D1D3-410F-95BE-0A3E98B65FEF}" name="number_of_sequences" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{60508684-7EAF-4BDF-A90D-FC9E411457E4}" name="avg_vessels_per_day" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{563E180C-04E6-4EBA-8FB1-778B9A92BDCD}" name="avg_tonnage_per_day" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{E639789E-D947-4713-8670-8BC0A67B6AB7}" name="avg_anchor_hrs_per_day" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12680,8 +12686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB4BECF-EE3D-4D84-A8BE-E64FCEB801B1}">
   <dimension ref="A1:AW5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12838,7 +12844,6 @@
       <c r="AD5" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3/zF61KdPZmfVX/5+JiMsSpUYb++JGk/EEZwg+lSCA9CIEB6GvQ0rP1xLX9hT8/ucHiSYdei52tCXofu/c5Piw==" saltValue="WW5LXi+SA87Ap+MP9rxswg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A3:L3"/>
   </mergeCells>
@@ -12930,7 +12935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MCo0dVj7ol66mR8vAWQIN+FGFPAhhpeScIUVlCUG82l15MOHtc2cRNZ2qUw5luu5RblBW6EsdmqoCRaLH2BYng==" saltValue="L97SJnwC1s003GC8HG36hg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -13042,7 +13047,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Osel+ywk8p5elqYdaU0OXkskfC43ttIJK7+Rw2WiF1DnekQ2fbjd7QGFSRfPG86/n4OPAQ1GRiC6SVQMPohycQ==" saltValue="P86HJtu6RQUKiutsUMkEvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -13053,7 +13058,7 @@
   <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15110,7 +15115,7 @@
       <c r="F83" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="N3sSOvJe7HL7NDed7JvtLl/a+K09bqczSpuIHzoDqou0oaEnYM1pwO2R/X3L9f6zc1kxTYQYPp7gPcuZg0m9Hg==" saltValue="JtkB8rPh/U3shKfx6aJkFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZqBFpeb0DQ+jg1vB85osg1tEYZHPqIht2aMbl2x7LrXLD8N7YPBksm7tLpSC4YGLnG+9paKUrQFRGHJ+PxbXug==" saltValue="MOaobtKMUHbkS7+yHLmueg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A83:F83"/>
   </mergeCells>
